--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-017 - Admin SLN, Admin WEM mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-017 - Admin SLN, Admin WEM mengajukan data Non Sales.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92335A70-088C-4E35-B653-884EFA8E4B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62988B0-B84A-4365-B74E-0B98BF371B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0294" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,9 +95,6 @@
     <t>Surat Keterangan Cuti</t>
   </si>
   <si>
-    <t>DGS-309</t>
-  </si>
-  <si>
     <t>Admin SLN/Admin WEM mengajukan data Non Sales</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>SLN/81718</t>
+  </si>
+  <si>
+    <t>SCD0018-017</t>
   </si>
 </sst>
 </file>
@@ -527,13 +527,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6">
         <v>52326</v>
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -641,14 +641,14 @@
       </c>
       <c r="M2" s="11" t="str">
         <f ca="1">TEXT(TODAY()-4,"yyyy-mm-dd")</f>
-        <v>2022-11-03</v>
+        <v>2022-11-06</v>
       </c>
       <c r="N2" s="11" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-11-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="6">
         <v>37679</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
@@ -692,14 +692,14 @@
       </c>
       <c r="M3" s="11" t="str">
         <f ca="1">TEXT(TODAY()-4,"yyyy-mm-dd")</f>
-        <v>2022-11-03</v>
+        <v>2022-11-06</v>
       </c>
       <c r="N3" s="10" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-11-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>20</v>
